--- a/Harman_Time_Log.xlsx
+++ b/Harman_Time_Log.xlsx
@@ -2,29 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11625" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="March_Time_Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dddddd" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ggsfd" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="March_Time_Log" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="HH:MM:SS" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="hh:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,12 +57,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -351,6 +363,612 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartTime</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WorkTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar_01</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar_02</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar_03</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar_04</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar_05</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar_06</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar_07</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar_08</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar_09</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar_10</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar_11</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar_12</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar_13</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar_14</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar_15</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mar_16</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mar_17</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mar_18</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mar_19</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mar_20</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mar_21</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mar_22</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mar_23</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mar_24</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mar_25</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mar_26</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mar_27</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mar_28</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mar_29</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mar_30</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mar_31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>15:02:03</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:22:16</t>
+        </is>
+      </c>
+      <c r="D32" s="3">
+        <f>C32-B32</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartTime</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WorkTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar_01</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar_02</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar_03</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar_04</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar_05</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar_06</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar_07</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar_08</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar_09</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar_10</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar_11</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar_12</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar_13</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar_14</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar_15</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mar_16</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mar_17</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mar_18</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mar_19</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mar_20</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mar_21</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mar_22</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mar_23</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mar_24</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mar_25</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mar_26</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mar_27</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mar_28</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mar_29</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mar_30</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mar_31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16:32:29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:32:48</t>
+        </is>
+      </c>
+      <c r="D32" s="3">
+        <f>C32-B32</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -384,7 +1002,7 @@
           <t>Mar_01</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n"/>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,7 +1010,7 @@
           <t>Mar_02</t>
         </is>
       </c>
-      <c r="D3" s="1" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -400,7 +1018,7 @@
           <t>Mar_03</t>
         </is>
       </c>
-      <c r="D4" s="1" t="n"/>
+      <c r="D4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -408,7 +1026,7 @@
           <t>Mar_04</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n"/>
+      <c r="D5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -416,7 +1034,7 @@
           <t>Mar_05</t>
         </is>
       </c>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -424,7 +1042,7 @@
           <t>Mar_06</t>
         </is>
       </c>
-      <c r="D7" s="1" t="n"/>
+      <c r="D7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -432,7 +1050,7 @@
           <t>Mar_07</t>
         </is>
       </c>
-      <c r="D8" s="1" t="n"/>
+      <c r="D8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -440,7 +1058,7 @@
           <t>Mar_08</t>
         </is>
       </c>
-      <c r="D9" s="1" t="n"/>
+      <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -448,7 +1066,7 @@
           <t>Mar_09</t>
         </is>
       </c>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -456,7 +1074,7 @@
           <t>Mar_10</t>
         </is>
       </c>
-      <c r="D11" s="1" t="n"/>
+      <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -464,7 +1082,7 @@
           <t>Mar_11</t>
         </is>
       </c>
-      <c r="D12" s="1" t="n"/>
+      <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -472,7 +1090,7 @@
           <t>Mar_12</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n"/>
+      <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -480,7 +1098,7 @@
           <t>Mar_13</t>
         </is>
       </c>
-      <c r="D14" s="1" t="n"/>
+      <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -488,7 +1106,7 @@
           <t>Mar_14</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n"/>
+      <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -496,7 +1114,7 @@
           <t>Mar_15</t>
         </is>
       </c>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -504,7 +1122,7 @@
           <t>Mar_16</t>
         </is>
       </c>
-      <c r="D17" s="1" t="n"/>
+      <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -512,7 +1130,7 @@
           <t>Mar_17</t>
         </is>
       </c>
-      <c r="D18" s="1" t="n"/>
+      <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -520,7 +1138,7 @@
           <t>Mar_18</t>
         </is>
       </c>
-      <c r="D19" s="1" t="n"/>
+      <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -528,7 +1146,7 @@
           <t>Mar_19</t>
         </is>
       </c>
-      <c r="D20" s="1" t="n"/>
+      <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -536,7 +1154,7 @@
           <t>Mar_20</t>
         </is>
       </c>
-      <c r="D21" s="1" t="n"/>
+      <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -544,7 +1162,7 @@
           <t>Mar_21</t>
         </is>
       </c>
-      <c r="D22" s="1" t="n"/>
+      <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -552,7 +1170,7 @@
           <t>Mar_22</t>
         </is>
       </c>
-      <c r="D23" s="1" t="n"/>
+      <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -560,7 +1178,7 @@
           <t>Mar_23</t>
         </is>
       </c>
-      <c r="D24" s="1" t="n"/>
+      <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -568,7 +1186,7 @@
           <t>Mar_24</t>
         </is>
       </c>
-      <c r="D25" s="1" t="n"/>
+      <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -576,7 +1194,7 @@
           <t>Mar_25</t>
         </is>
       </c>
-      <c r="D26" s="1" t="n"/>
+      <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -584,7 +1202,7 @@
           <t>Mar_26</t>
         </is>
       </c>
-      <c r="D27" s="1" t="n"/>
+      <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -592,7 +1210,7 @@
           <t>Mar_27</t>
         </is>
       </c>
-      <c r="D28" s="1" t="n"/>
+      <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -600,7 +1218,7 @@
           <t>Mar_28</t>
         </is>
       </c>
-      <c r="D29" s="1" t="n"/>
+      <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -608,7 +1226,7 @@
           <t>Mar_29</t>
         </is>
       </c>
-      <c r="D30" s="1" t="n"/>
+      <c r="D30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -616,7 +1234,7 @@
           <t>Mar_30</t>
         </is>
       </c>
-      <c r="D31" s="1" t="n"/>
+      <c r="D31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -626,15 +1244,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15:02:03</t>
+          <t>16:33:18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:02:04</t>
-        </is>
-      </c>
-      <c r="D32" s="1">
+          <t>16:33:19</t>
+        </is>
+      </c>
+      <c r="D32" s="4">
         <f>C32-B32</f>
         <v/>
       </c>
